--- a/public/exams/Excel.xlsx
+++ b/public/exams/Excel.xlsx
@@ -5,19 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\PDAO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6E202B9-943E-43EB-90D6-0A1925630CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCB3AD51-699B-4912-8431-BDAFBB717652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9C02F991-A966-4A6E-A9FF-D558234E72E0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{5F4ACB78-8F74-4170-8D9B-72DD04E6E7A2}"/>
   </bookViews>
   <sheets>
-    <sheet name="No 1" sheetId="1" r:id="rId1"/>
-    <sheet name="No 2" sheetId="2" r:id="rId2"/>
-    <sheet name="No 3" sheetId="3" r:id="rId3"/>
-    <sheet name="No 4" sheetId="4" r:id="rId4"/>
-    <sheet name="No 5" sheetId="5" r:id="rId5"/>
+    <sheet name="Q1" sheetId="1" r:id="rId1"/>
+    <sheet name="Q2" sheetId="2" r:id="rId2"/>
+    <sheet name="Q3" sheetId="3" r:id="rId3"/>
+    <sheet name="Q4" sheetId="4" r:id="rId4"/>
+    <sheet name="Q5" sheetId="5" r:id="rId5"/>
+    <sheet name="Q6" sheetId="6" r:id="rId6"/>
+    <sheet name="Q7" sheetId="7" r:id="rId7"/>
+    <sheet name="Q8" sheetId="8" r:id="rId8"/>
+    <sheet name="Q9" sheetId="9" r:id="rId9"/>
+    <sheet name="Q10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,46 +34,664 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Book</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Book1</t>
-  </si>
-  <si>
-    <t>Book2</t>
-  </si>
-  <si>
-    <t>book3</t>
-  </si>
-  <si>
-    <t>book4</t>
-  </si>
-  <si>
-    <t>book5</t>
-  </si>
-  <si>
-    <t>Grand total:</t>
-  </si>
-  <si>
-    <t>Get the total of every column. Use the correct formula</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="217">
+  <si>
+    <t>The following table includes ABC company's revenue by month.</t>
+  </si>
+  <si>
+    <t>The company's CFO asked you to use SUM formula to calculate the total revenue for the year.</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Revenue in $MM</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>Total Year</t>
+  </si>
+  <si>
+    <t>&lt;&lt;Enter value here</t>
+  </si>
+  <si>
+    <t>The table below shows survey responses; the respondents could use any value for their answers.</t>
+  </si>
+  <si>
+    <t>How many times do you eat breakfast in a week?</t>
+  </si>
+  <si>
+    <t>Name:</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>Avery</t>
+  </si>
+  <si>
+    <t>Ron</t>
+  </si>
+  <si>
+    <t>Avi</t>
+  </si>
+  <si>
+    <t>Ravi</t>
+  </si>
+  <si>
+    <t>Ricky</t>
+  </si>
+  <si>
+    <t>Three</t>
+  </si>
+  <si>
+    <t>Nate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don't know </t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Solve by using COUNT and COUNTA formulas, and use only column B (Grey) to answer the questions:</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>How many numerical (with numbers only) responses are in the range?</t>
+  </si>
+  <si>
+    <t>How many responses in total are in the range?</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Light Weight</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Medium Weight</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Heavy Weight</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Use only Average function for the following excercises</t>
+  </si>
+  <si>
+    <t>Average Weight of "Light Weight" category</t>
+  </si>
+  <si>
+    <t>Average Weight of "Medium Weight" category</t>
+  </si>
+  <si>
+    <t>Average Weight of "Heavey Weight" category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average for all categories </t>
+  </si>
+  <si>
+    <t>MAX, MIN and Average</t>
+  </si>
+  <si>
+    <t>Sumo wrestlers contest - Names and Weights</t>
+  </si>
+  <si>
+    <t>Use max, min and average formulas to answer the following questions.</t>
+  </si>
+  <si>
+    <t>Ishaymoto</t>
+  </si>
+  <si>
+    <t>Solomoto</t>
+  </si>
+  <si>
+    <t>Greenko</t>
+  </si>
+  <si>
+    <t>Dinamito</t>
+  </si>
+  <si>
+    <t>Shlomtzi</t>
+  </si>
+  <si>
+    <t>Oveidyudo</t>
+  </si>
+  <si>
+    <t>What is the maximum weight of a wrestler?</t>
+  </si>
+  <si>
+    <t>What is the minimum weight of a wrestler?</t>
+  </si>
+  <si>
+    <t>What is the average between the maximum and the minimum? (mid range)</t>
+  </si>
+  <si>
+    <t>Table A contains names and their respective grades for Excel 101 Course</t>
+  </si>
+  <si>
+    <t>Complete column C using only IF formula</t>
+  </si>
+  <si>
+    <t>Grade 60 or higher = Pass</t>
+  </si>
+  <si>
+    <t>Grade less than 60 = Fail</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Pass/Fail</t>
+  </si>
+  <si>
+    <t>Adi</t>
+  </si>
+  <si>
+    <t>Beni</t>
+  </si>
+  <si>
+    <t>Charlie</t>
+  </si>
+  <si>
+    <t>Dani</t>
+  </si>
+  <si>
+    <t>The school decided to use the following grade system:</t>
+  </si>
+  <si>
+    <t>Grade higher or equal to 80 - Excellent</t>
+  </si>
+  <si>
+    <t>Grade higher or equal to 60 but lower than 80 - Good</t>
+  </si>
+  <si>
+    <t>Grade lower than 60 - Failed</t>
+  </si>
+  <si>
+    <t>Complete the following:</t>
+  </si>
+  <si>
+    <t>Student name</t>
+  </si>
+  <si>
+    <t>Failed/Good/Excellent</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Deborah</t>
+  </si>
+  <si>
+    <t>Client #</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>VIP Account?</t>
+  </si>
+  <si>
+    <t>Total commisions</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>SUMIF</t>
+  </si>
+  <si>
+    <t>What is the total amout of money in VIP Accounts?</t>
+  </si>
+  <si>
+    <t>What is the total amout of money in Non-VIP Accounts?</t>
+  </si>
+  <si>
+    <t>What is the total amount of commisions from accounts that are over $10,000?</t>
+  </si>
+  <si>
+    <t>What is the total amout of money in accounts over $10,000?</t>
+  </si>
+  <si>
+    <t>What is the total amout of money in accounts under $9,500?</t>
+  </si>
+  <si>
+    <t>Below is the list of top 30 countries in the world by Population.</t>
+  </si>
+  <si>
+    <t>Answer the following questions:</t>
+  </si>
+  <si>
+    <t>How many Spanish speaking countries that are located in South America can be found in the table?</t>
+  </si>
+  <si>
+    <t>How many countries have population greater than 100 million, and Area less than 1,000,000 Square KM?</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Continent</t>
+  </si>
+  <si>
+    <t>Official/Primary Language</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Area (Square KM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currency </t>
+  </si>
+  <si>
+    <t>GDP (Billions)</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Standard Chinese</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Indonesian</t>
+  </si>
+  <si>
+    <t>IDR</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Urdu</t>
+  </si>
+  <si>
+    <t>PKR</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>South America</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>BRL</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>NGN</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Bengali</t>
+  </si>
+  <si>
+    <t>BDT</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Russian</t>
+  </si>
+  <si>
+    <t>RUB</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>MXN</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Amharic</t>
+  </si>
+  <si>
+    <t>ETB</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Tagalog</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Modern Standard Arabic</t>
+  </si>
+  <si>
+    <t>EGP</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Vietnamese</t>
+  </si>
+  <si>
+    <t>VND</t>
+  </si>
+  <si>
+    <t>Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>CDF</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Persian</t>
+  </si>
+  <si>
+    <t>IRR</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Turkish</t>
+  </si>
+  <si>
+    <t>TRY</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Thai</t>
+  </si>
+  <si>
+    <t>THB</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Zulu</t>
+  </si>
+  <si>
+    <t>ZAR</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Swahili</t>
+  </si>
+  <si>
+    <t>TSH</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Burmese</t>
+  </si>
+  <si>
+    <t>MMK</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Korean</t>
+  </si>
+  <si>
+    <t>KRW</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>COP</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kiswahili</t>
+  </si>
+  <si>
+    <t>KES</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Return the number of the day of the week for the following date:</t>
+  </si>
+  <si>
+    <t>(Reference the date by clicking the cell below)</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>3/18/2024</t>
+  </si>
+  <si>
+    <t>If week starts on Sunday</t>
+  </si>
+  <si>
+    <t>&lt;= Insert formula here</t>
+  </si>
+  <si>
+    <t>If week starts on Monday</t>
+  </si>
+  <si>
+    <t>Answer:</t>
+  </si>
+  <si>
+    <t>In UCLA online store, only full-time students with GPA over 4.5 get a discount otherwise they don't;</t>
+  </si>
+  <si>
+    <t>The system generates a random user - check if she/he gets a discount and return "Yes" for discount, else "No".</t>
+  </si>
+  <si>
+    <t>DATA:</t>
+  </si>
+  <si>
+    <t>User number</t>
+  </si>
+  <si>
+    <t>Data always changes. Beware!</t>
+  </si>
+  <si>
+    <t>Make sure you use Cells reference (exmple =B9) and not hard-coded values.</t>
+  </si>
+  <si>
+    <t>Full time/Part-Time</t>
+  </si>
+  <si>
+    <t>Full-Time</t>
+  </si>
+  <si>
+    <t>GPA</t>
+  </si>
+  <si>
+    <t>&lt;= Insert formula here!</t>
+  </si>
+  <si>
+    <t>(Solution in Row 100)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,29 +700,139 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="22"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0E101A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEEAF6"/>
+        <bgColor rgb="FFDEEAF6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE4D5"/>
+        <bgColor rgb="FFFBE4D5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFD9"/>
+        <bgColor rgb="FFE2EFD9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6DCE4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -108,6 +841,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -126,35 +898,117 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
@@ -163,7 +1017,7 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -172,28 +1026,28 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -202,10 +1056,10 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
@@ -214,13 +1068,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
@@ -229,15 +1083,118 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -246,27 +1203,101 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,186 +1611,2352 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F6DB2E-6A1A-4B0C-864F-D47A64471D44}">
-  <dimension ref="A2:K12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C57414D-5B84-4896-944C-B5612F3FBACE}">
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>759</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>200</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>42</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>423</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>200</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4">
+        <v>50</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="B12" s="4">
+        <v>700</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>450</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
+        <v>605</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4">
+        <v>240</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4">
+        <v>685</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4">
+        <v>295</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1B6720-A30D-4242-9720-0F2FD1021944}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="66" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="66" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="66"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2">
-        <v>500</v>
-      </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2">
-        <v>431</v>
-      </c>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2">
-        <v>512</v>
-      </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2">
-        <v>681</v>
-      </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
-        <v>5</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2">
-        <v>921</v>
-      </c>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="66"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="58" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" s="59">
+        <v>76</v>
+      </c>
+      <c r="C8" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="60" t="s">
+        <v>212</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="62" t="s">
+        <v>214</v>
+      </c>
+      <c r="B10" s="63">
+        <v>4.43</v>
+      </c>
+      <c r="C10" s="67"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="69" t="s">
+        <v>215</v>
+      </c>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B13" s="64"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:K3"/>
+  <mergeCells count="8">
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C12:F14"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D560341-26B6-46AE-9910-606E4CD8E597}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ADC530B-A456-495C-8CA7-5ED6028FECBE}">
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="12">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="12">
+        <v>5</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="12">
+        <v>6</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="12">
+        <v>4</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CBBDCB-1FF1-41D5-AE1F-85D4289659C9}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115D601F-F093-40F8-B63D-4661EAB2C740}">
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="39.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="16">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="16">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="16">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="17">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="17">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="17">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="18"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F117BD40-FE48-403D-9238-6586227914F1}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA85D744-A2DB-4650-A299-3584F9DD79AD}">
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="19"/>
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="22"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="14">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="14">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="14">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="14">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="14">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="5"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{505E9257-2C5C-49F1-A232-521D34EBDD5E}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A0919E-1FA1-419D-9DD4-3C64823F376E}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="14">
+        <v>98</v>
+      </c>
+      <c r="C7" s="26"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="14">
+        <v>55</v>
+      </c>
+      <c r="C8" s="26"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="14">
+        <v>15</v>
+      </c>
+      <c r="C9" s="26"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="14">
+        <v>60</v>
+      </c>
+      <c r="C10" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE19E95-89F7-4FEC-9E5B-65DF1C76704A}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="28">
+        <v>78</v>
+      </c>
+      <c r="C9" s="29"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="28">
+        <v>85</v>
+      </c>
+      <c r="C10" s="29"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="28">
+        <v>44</v>
+      </c>
+      <c r="C11" s="29"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="28">
+        <v>61</v>
+      </c>
+      <c r="C12" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B64E97-E0D3-4CA2-A247-0EB74AA5E1C9}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="30">
+        <v>1</v>
+      </c>
+      <c r="C2" s="31">
+        <v>8000</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="30">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="30">
+        <v>2</v>
+      </c>
+      <c r="C3" s="31">
+        <v>11000</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="30">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="30">
+        <v>3</v>
+      </c>
+      <c r="C4" s="31">
+        <v>6000</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="30">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="30">
+        <v>4</v>
+      </c>
+      <c r="C5" s="31">
+        <v>15000</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="30">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="30">
+        <v>5</v>
+      </c>
+      <c r="C6" s="31">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="30">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="30">
+        <v>6</v>
+      </c>
+      <c r="C7" s="31">
+        <v>15000</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="30">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="30">
+        <v>7</v>
+      </c>
+      <c r="C8" s="31">
+        <v>13000</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="30">
+        <v>999</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="30">
+        <v>8</v>
+      </c>
+      <c r="C9" s="31">
+        <v>8000</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="30">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="30">
+        <v>9</v>
+      </c>
+      <c r="C10" s="31">
+        <v>11000</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="30">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="30">
+        <v>10</v>
+      </c>
+      <c r="C11" s="31">
+        <v>9000</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="30">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="32"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="32"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="32"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="32"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:B19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308DB95E-1DC6-4E8C-9594-093CEC5DC221}">
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37" style="51" customWidth="1"/>
+    <col min="2" max="2" width="14" style="51" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="47"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="47"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="31">
+        <v>1397715000</v>
+      </c>
+      <c r="E8" s="31">
+        <v>9596960</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="41">
+        <v>14343</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="31">
+        <v>1366417754</v>
+      </c>
+      <c r="E9" s="31">
+        <v>3287263</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" s="41">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="31">
+        <v>328239523</v>
+      </c>
+      <c r="E10" s="31">
+        <v>9833517</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="41">
+        <v>22675</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="31">
+        <v>270203917</v>
+      </c>
+      <c r="E11" s="31">
+        <v>1904569</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" s="41">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="31">
+        <v>216565318</v>
+      </c>
+      <c r="E12" s="31">
+        <v>796095</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="42">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="31">
+        <v>212559417</v>
+      </c>
+      <c r="E13" s="31">
+        <v>8515770</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="41">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="31">
+        <v>200963599</v>
+      </c>
+      <c r="E14" s="31">
+        <v>923768</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" s="42">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="31">
+        <v>163046161</v>
+      </c>
+      <c r="E15" s="31">
+        <v>148460</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" s="42">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="31">
+        <v>144373535</v>
+      </c>
+      <c r="E16" s="31">
+        <v>17098240</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" s="41">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" s="31">
+        <v>126014024</v>
+      </c>
+      <c r="E17" s="31">
+        <v>1964375</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" s="41">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="31">
+        <v>126264931</v>
+      </c>
+      <c r="E18" s="31">
+        <v>377944</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" s="41">
+        <v>5082</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="31">
+        <v>112078730</v>
+      </c>
+      <c r="E19" s="31">
+        <v>1104300</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" s="42">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="31">
+        <v>108116615</v>
+      </c>
+      <c r="E20" s="31">
+        <v>300000</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20" s="42">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21" s="31">
+        <v>100388073</v>
+      </c>
+      <c r="E21" s="31">
+        <v>1001450</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="G21" s="42">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22" s="31">
+        <v>96462106</v>
+      </c>
+      <c r="E22" s="31">
+        <v>331210</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="G22" s="42">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" s="31">
+        <v>86790567</v>
+      </c>
+      <c r="E23" s="31">
+        <v>2344858</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="G23" s="42">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" s="31">
+        <v>82913906</v>
+      </c>
+      <c r="E24" s="31">
+        <v>1648195</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="G24" s="42">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="B25" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" s="31">
+        <v>83429615</v>
+      </c>
+      <c r="E25" s="31">
+        <v>783562</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="G25" s="42">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="B26" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" s="31">
+        <v>83132799</v>
+      </c>
+      <c r="E26" s="31">
+        <v>357022</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="G26" s="41">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="B27" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" s="31">
+        <v>67059887</v>
+      </c>
+      <c r="E27" s="31">
+        <v>643801</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="G27" s="41">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="B28" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="31">
+        <v>66834405</v>
+      </c>
+      <c r="E28" s="31">
+        <v>243610</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="G28" s="41">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="B29" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="D29" s="31">
+        <v>69625582</v>
+      </c>
+      <c r="E29" s="31">
+        <v>513120</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="G29" s="42">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="B30" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="D30" s="31">
+        <v>58558270</v>
+      </c>
+      <c r="E30" s="31">
+        <v>1219090</v>
+      </c>
+      <c r="F30" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="G30" s="42">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="B31" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="D31" s="31">
+        <v>58005463</v>
+      </c>
+      <c r="E31" s="31">
+        <v>947300</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="G31" s="42">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="B32" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="D32" s="31">
+        <v>60297396</v>
+      </c>
+      <c r="E32" s="31">
+        <v>301340</v>
+      </c>
+      <c r="F32" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="G32" s="41">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="D33" s="31">
+        <v>54045420</v>
+      </c>
+      <c r="E33" s="31">
+        <v>676578</v>
+      </c>
+      <c r="F33" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="G33" s="42">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="B34" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="D34" s="31">
+        <v>51709098</v>
+      </c>
+      <c r="E34" s="31">
+        <v>99720</v>
+      </c>
+      <c r="F34" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="G34" s="41">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="B35" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" s="31">
+        <v>50339443</v>
+      </c>
+      <c r="E35" s="31">
+        <v>1138910</v>
+      </c>
+      <c r="F35" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="G35" s="42">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="B36" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="D36" s="31">
+        <v>52573973</v>
+      </c>
+      <c r="E36" s="31">
+        <v>580367</v>
+      </c>
+      <c r="F36" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="G36" s="42">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="B37" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" s="44">
+        <v>47076781</v>
+      </c>
+      <c r="E37" s="44">
+        <v>505370</v>
+      </c>
+      <c r="F37" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="G37" s="46">
+        <v>1394</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{757E28B2-D9C0-4AAC-BDC5-2B92B1CB2CD3}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" s="55"/>
+      <c r="C5" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" s="55"/>
+      <c r="C6" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>